--- a/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.98628459360899</v>
+        <v>89.74139294657385</v>
       </c>
       <c r="D2" t="n">
-        <v>2.868938449170351</v>
+        <v>2.560342949640695</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.15150928993303</v>
+        <v>88.71448811202778</v>
       </c>
       <c r="D3" t="n">
-        <v>2.859562999208645</v>
+        <v>2.606361271339571</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.89185506404115</v>
+        <v>87.96428251550998</v>
       </c>
       <c r="D4" t="n">
-        <v>2.786705945770229</v>
+        <v>2.785401713370064</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.7603733932806</v>
+        <v>86.73718280267107</v>
       </c>
       <c r="D5" t="n">
-        <v>2.676145170529045</v>
+        <v>2.445807790997301</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.31139777761148</v>
+        <v>86.12986781987566</v>
       </c>
       <c r="D6" t="n">
-        <v>2.495623074783954</v>
+        <v>2.951980394272236</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.33421062698307</v>
+        <v>84.72964530677477</v>
       </c>
       <c r="D7" t="n">
-        <v>2.916783610712636</v>
+        <v>2.803177800109898</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.44672870041792</v>
+        <v>84.09951810084398</v>
       </c>
       <c r="D8" t="n">
-        <v>2.517461734390707</v>
+        <v>2.811044878659759</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.0154355027386</v>
+        <v>82.73111953524469</v>
       </c>
       <c r="D9" t="n">
-        <v>2.86570011451923</v>
+        <v>3.12363602922932</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.87552351898047</v>
+        <v>82.32251684424496</v>
       </c>
       <c r="D10" t="n">
-        <v>2.473227439053143</v>
+        <v>2.791124489085192</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.33126929762622</v>
+        <v>80.8070561893776</v>
       </c>
       <c r="D11" t="n">
-        <v>2.697928210576356</v>
+        <v>2.994632629326494</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.05119442786776</v>
+        <v>80.50598455889305</v>
       </c>
       <c r="D12" t="n">
-        <v>2.843238789023759</v>
+        <v>3.057847571507652</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.88806119102735</v>
+        <v>79.15783078801707</v>
       </c>
       <c r="D13" t="n">
-        <v>3.212363810175333</v>
+        <v>2.99152191007327</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.26181787917268</v>
+        <v>77.69604207572972</v>
       </c>
       <c r="D14" t="n">
-        <v>3.021520420416647</v>
+        <v>2.996005232042794</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98016713894258</v>
+        <v>77.10868235144703</v>
       </c>
       <c r="D15" t="n">
-        <v>2.628521886183868</v>
+        <v>2.820042377140702</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.0814385356225</v>
+        <v>75.95981087331946</v>
       </c>
       <c r="D16" t="n">
-        <v>2.813462009435214</v>
+        <v>3.38241465147044</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.77261647929062</v>
+        <v>74.85974126554692</v>
       </c>
       <c r="D17" t="n">
-        <v>3.066281595242221</v>
+        <v>3.113662543841339</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.12346604611564</v>
+        <v>74.07102135518146</v>
       </c>
       <c r="D18" t="n">
-        <v>2.758429900664134</v>
+        <v>2.872781082154985</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.05745529061059</v>
+        <v>72.69806600560878</v>
       </c>
       <c r="D19" t="n">
-        <v>3.233883427023461</v>
+        <v>2.98666756625653</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.22601178071589</v>
+        <v>71.9850799438326</v>
       </c>
       <c r="D20" t="n">
-        <v>2.937485013339156</v>
+        <v>2.902236556087746</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.79065586023702</v>
+        <v>71.19875415725906</v>
       </c>
       <c r="D21" t="n">
-        <v>2.820240801170071</v>
+        <v>3.194092785516233</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.38633543521179</v>
+        <v>70.13590064028239</v>
       </c>
       <c r="D22" t="n">
-        <v>2.830287095955588</v>
+        <v>3.412327545414085</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.70185111458217</v>
+        <v>69.17854425378178</v>
       </c>
       <c r="D23" t="n">
-        <v>2.92408745083578</v>
+        <v>3.322859898584874</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.76911309595863</v>
+        <v>67.85176645309855</v>
       </c>
       <c r="D24" t="n">
-        <v>3.012939864764389</v>
+        <v>3.110148249827439</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.60527769526057</v>
+        <v>67.35773104818377</v>
       </c>
       <c r="D25" t="n">
-        <v>3.185929915304166</v>
+        <v>2.737363483993743</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.09123767628815</v>
+        <v>66.11531272418615</v>
       </c>
       <c r="D26" t="n">
-        <v>3.512384045122676</v>
+        <v>3.335840770504348</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.52566011925997</v>
+        <v>65.13897493368867</v>
       </c>
       <c r="D27" t="n">
-        <v>2.859994434617363</v>
+        <v>2.991909143211177</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.69108692898363</v>
+        <v>63.75587336832125</v>
       </c>
       <c r="D28" t="n">
-        <v>3.090684835965688</v>
+        <v>2.771113042355211</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.87684311165709</v>
+        <v>63.44525874019349</v>
       </c>
       <c r="D29" t="n">
-        <v>3.529466347447194</v>
+        <v>2.936781287596919</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.07686976686241</v>
+        <v>61.9173443149075</v>
       </c>
       <c r="D30" t="n">
-        <v>3.132843832964235</v>
+        <v>2.87872867163678</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.90727974407942</v>
+        <v>60.74908546324701</v>
       </c>
       <c r="D31" t="n">
-        <v>3.466854089733801</v>
+        <v>3.506109157264329</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.16022138549283</v>
+        <v>59.7064993634748</v>
       </c>
       <c r="D32" t="n">
-        <v>3.191289759735691</v>
+        <v>3.207577147863205</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.86264764627115</v>
+        <v>59.03956035559738</v>
       </c>
       <c r="D33" t="n">
-        <v>3.199692236357884</v>
+        <v>3.623798827562696</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.74522630596935</v>
+        <v>58.08191707515802</v>
       </c>
       <c r="D34" t="n">
-        <v>3.370824361326004</v>
+        <v>3.11322410192517</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.42507693924307</v>
+        <v>57.30276697545086</v>
       </c>
       <c r="D35" t="n">
-        <v>2.780941722144901</v>
+        <v>3.357147296066809</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.58215104565076</v>
+        <v>56.03846580266847</v>
       </c>
       <c r="D36" t="n">
-        <v>3.523688169812747</v>
+        <v>3.457678410123827</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.62160885256223</v>
+        <v>54.55826419902497</v>
       </c>
       <c r="D37" t="n">
-        <v>3.17663698583516</v>
+        <v>3.334827239711685</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.22194745059764</v>
+        <v>53.45224554370666</v>
       </c>
       <c r="D38" t="n">
-        <v>3.145496276756829</v>
+        <v>3.066400187640476</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.03109881294681</v>
+        <v>52.86824001109439</v>
       </c>
       <c r="D39" t="n">
-        <v>3.214107536447938</v>
+        <v>3.30849721810517</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.27341727292255</v>
+        <v>52.10723145936621</v>
       </c>
       <c r="D40" t="n">
-        <v>3.102291777029732</v>
+        <v>3.518904964515716</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.27480801496047</v>
+        <v>51.05855170001807</v>
       </c>
       <c r="D41" t="n">
-        <v>3.094674699866768</v>
+        <v>3.755355423615186</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.83466062385846</v>
+        <v>49.41093722017929</v>
       </c>
       <c r="D42" t="n">
-        <v>3.274501095265622</v>
+        <v>3.709854616687813</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.74874481128373</v>
+        <v>49.29536399719758</v>
       </c>
       <c r="D43" t="n">
-        <v>3.477111095125704</v>
+        <v>3.862059625980672</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.30451941716967</v>
+        <v>47.96914340065681</v>
       </c>
       <c r="D44" t="n">
-        <v>3.06409842115607</v>
+        <v>3.563551393351929</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.65480787189605</v>
+        <v>46.80444720069372</v>
       </c>
       <c r="D45" t="n">
-        <v>3.286686918088807</v>
+        <v>2.993304917703086</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.15688053604665</v>
+        <v>45.54304683736223</v>
       </c>
       <c r="D46" t="n">
-        <v>3.112302319683674</v>
+        <v>3.547575195226428</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.34208356583719</v>
+        <v>45.19651006948487</v>
       </c>
       <c r="D47" t="n">
-        <v>3.275707479692018</v>
+        <v>3.428909734385525</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.82874225824386</v>
+        <v>43.57055528473418</v>
       </c>
       <c r="D48" t="n">
-        <v>3.428354961248214</v>
+        <v>3.725697137170248</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.24709007363133</v>
+        <v>42.98386501434278</v>
       </c>
       <c r="D49" t="n">
-        <v>3.486079182742325</v>
+        <v>3.674942298970444</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.74580873313835</v>
+        <v>42.5494882119101</v>
       </c>
       <c r="D50" t="n">
-        <v>3.182871280032161</v>
+        <v>3.692845776921823</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.96706083221683</v>
+        <v>40.43653279731814</v>
       </c>
       <c r="D51" t="n">
-        <v>3.649606953815463</v>
+        <v>3.613026863958875</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.78979417652035</v>
+        <v>39.72523041032122</v>
       </c>
       <c r="D52" t="n">
-        <v>3.902575370312868</v>
+        <v>3.25273132467459</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.5028875627373</v>
+        <v>39.00991214912747</v>
       </c>
       <c r="D53" t="n">
-        <v>3.22961590825045</v>
+        <v>3.400210906858835</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.08784659678036</v>
+        <v>37.82119868682321</v>
       </c>
       <c r="D54" t="n">
-        <v>3.798268493861582</v>
+        <v>3.415094050834036</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.4598801148845</v>
+        <v>37.19910350766497</v>
       </c>
       <c r="D55" t="n">
-        <v>3.444267753257318</v>
+        <v>3.458972690587</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.09123194157559</v>
+        <v>36.13073548061484</v>
       </c>
       <c r="D56" t="n">
-        <v>3.322094687420829</v>
+        <v>3.397715048856694</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.16927794182059</v>
+        <v>34.71953850589955</v>
       </c>
       <c r="D57" t="n">
-        <v>3.672056051342152</v>
+        <v>3.830070446848388</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.65710268590487</v>
+        <v>33.96081419420243</v>
       </c>
       <c r="D58" t="n">
-        <v>3.813476776783681</v>
+        <v>4.174279718572155</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.27603899051388</v>
+        <v>33.47148988068883</v>
       </c>
       <c r="D59" t="n">
-        <v>3.672752595258268</v>
+        <v>4.090918704210052</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.75158736651953</v>
+        <v>32.25231681525121</v>
       </c>
       <c r="D60" t="n">
-        <v>4.027729805689564</v>
+        <v>3.375470458407077</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.8362913691256</v>
+        <v>30.87488651688304</v>
       </c>
       <c r="D61" t="n">
-        <v>3.920940690652268</v>
+        <v>3.786528554789665</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.98933775905026</v>
+        <v>30.24550123707251</v>
       </c>
       <c r="D62" t="n">
-        <v>3.25513284675613</v>
+        <v>3.871915814618185</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.4124794460989</v>
+        <v>28.65472878034141</v>
       </c>
       <c r="D63" t="n">
-        <v>4.012844971538457</v>
+        <v>3.698956395913652</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.78327901185342</v>
+        <v>27.85525378785254</v>
       </c>
       <c r="D64" t="n">
-        <v>3.822932709483315</v>
+        <v>3.49014018428414</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.4506147912817</v>
+        <v>27.44452877557324</v>
       </c>
       <c r="D65" t="n">
-        <v>4.010276331762451</v>
+        <v>3.474984292982341</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.55660845757334</v>
+        <v>25.64519914015604</v>
       </c>
       <c r="D66" t="n">
-        <v>3.95710939097799</v>
+        <v>3.687529098871277</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.44368066493226</v>
+        <v>25.63241670878198</v>
       </c>
       <c r="D67" t="n">
-        <v>4.10813683368147</v>
+        <v>3.503731793199198</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.63477578462161</v>
+        <v>23.80756705184802</v>
       </c>
       <c r="D68" t="n">
-        <v>3.632655030033801</v>
+        <v>4.298153680774901</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.63812515937444</v>
+        <v>22.76948354344222</v>
       </c>
       <c r="D69" t="n">
-        <v>3.844282586423792</v>
+        <v>3.815780532203898</v>
       </c>
     </row>
   </sheetData>
